--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.32e+01</t>
+          <t>9.44e+01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.51e+01</t>
+          <t>9.41e+01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.77e+01</t>
+          <t>9.30e+01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>6.98</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.72e+02</t>
+          <t>1.73e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.82e+02</t>
+          <t>1.80e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.56e+02</t>
+          <t>1.70e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-27.8</t>
+          <t>14.8</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.95e-05</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-0.537</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.97e-05</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.304</t>
+          <t>-0.296</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-0.229</t>
+          <t>-1.35</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.86e-01</t>
+          <t>9.85e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.494</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.86e-01</t>
+          <t>9.89e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.419</t>
+          <t>0.122</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.87e-01</t>
+          <t>9.85e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.255</t>
+          <t>0.46</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.44e+01</t>
+          <t>9.69e+01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.41e+01</t>
+          <t>9.72e+01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.30e+01</t>
+          <t>9.05e+01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>9.45</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.73e+02</t>
+          <t>2.52e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>-26.1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.80e+02</t>
+          <t>2.54e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>-26.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.70e+02</t>
+          <t>1.82e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>8.94</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.00e-04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-0.472</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1.01e-04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-0.537</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.296</t>
+          <t>-0.825</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>9.96e-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>0.406</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>9.87e-01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.269</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.89e-01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>9.85e-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.494</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.89e-01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.122</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>9.85e-01</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.501</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.69e+01</t>
+          <t>9.38e+01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.72e+01</t>
+          <t>9.17e+01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.05e+01</t>
+          <t>9.38e+01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>6.24</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.52e+02</t>
+          <t>2.39e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-26.1</t>
+          <t>-19.4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.54e+02</t>
+          <t>1.66e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-26.8</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.82e+02</t>
+          <t>1.77e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>11.6</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>9.97e-05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.342</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1.00e-04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-0.472</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-0.274</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1.01e-04</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-0.825</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>9.96e-05</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.406</t>
+          <t>-0.746</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.87e-01</t>
+          <t>9.88e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.269</t>
+          <t>0.206</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.89e-01</t>
+          <t>9.85e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>0.499</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.85e-01</t>
+          <t>9.86e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.501</t>
+          <t>0.408</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.38e+01</t>
+          <t>9.69e+01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.17e+01</t>
+          <t>9.79e+01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.38e+01</t>
+          <t>9.50e+01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>5.02</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.39e+02</t>
+          <t>1.74e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-19.4</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.66e+02</t>
+          <t>2.53e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>-26.6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.77e+02</t>
+          <t>2.54e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>-27.0</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.97e-05</t>
+          <t>1.02e-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.342</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.274</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>9.95e-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-0.746</t>
+          <t>0.481</t>
         </is>
       </c>
     </row>
@@ -634,22 +634,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.88e-01</t>
+          <t>9.87e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.206</t>
+          <t>0.332</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.85e-01</t>
+          <t>9.89e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.499</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.408</t>
+          <t>0.371</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.69e+01</t>
+          <t>9.82e+01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.79e+01</t>
+          <t>1.02e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.50e+01</t>
+          <t>1.01e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>-1.45</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.00e+02</t>
+          <t>4.00e+02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.74e+02</t>
+          <t>4.39e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>-9.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.53e+02</t>
+          <t>2.60e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-26.6</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.54e+02</t>
+          <t>4.07e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-1.85</t>
         </is>
       </c>
     </row>
@@ -587,12 +587,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.02e-04</t>
+          <t>9.95e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>0.499</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -602,17 +602,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.95e-05</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.481</t>
+          <t>-0.262</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.87e-01</t>
+          <t>9.91e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.332</t>
+          <t>-0.0552</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.89e-01</t>
+          <t>9.90e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.117</t>
+          <t>-0.0414</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.86e-01</t>
+          <t>9.90e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.371</t>
+          <t>0.00566</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.82e+01</t>
+          <t>9.92e+01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.02e+02</t>
+          <t>9.74e+01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.01e+02</t>
+          <t>9.93e+01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>0.713</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.39e+02</t>
+          <t>3.95e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-9.74</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.60e+02</t>
+          <t>4.28e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>-7.03</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.07e+02</t>
+          <t>3.99e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>0.326</t>
         </is>
       </c>
     </row>
@@ -592,27 +592,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.499</t>
+          <t>0.469</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>9.96e-05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>1.01e-04</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-0.262</t>
+          <t>-0.81</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.91e-01</t>
+          <t>9.89e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.0552</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.90e-01</t>
+          <t>9.86e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.0414</t>
+          <t>0.394</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.90e-01</t>
+          <t>9.88e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.00566</t>
+          <t>0.196</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.92e+01</t>
+          <t>9.24e+01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.74e+01</t>
+          <t>1.00e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>-0.326</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.93e+01</t>
+          <t>9.71e+01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.713</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.00e+02</t>
+          <t>2.00e+02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.95e+02</t>
+          <t>2.26e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>-13.1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.28e+02</t>
+          <t>2.41e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-7.03</t>
+          <t>-20.3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.99e+02</t>
+          <t>1.80e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.326</t>
+          <t>10.1</t>
         </is>
       </c>
     </row>
@@ -587,22 +587,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.95e-05</t>
+          <t>1.02e-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.469</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.96e-05</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>-0.728</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -634,22 +634,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.89e-01</t>
+          <t>9.86e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.381</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.86e-01</t>
+          <t>9.90e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.394</t>
+          <t>-0.0379</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.196</t>
+          <t>0.249</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.24e+01</t>
+          <t>9.68e+01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.00e+02</t>
+          <t>1.01e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.326</t>
+          <t>-0.913</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.71e+01</t>
+          <t>1.02e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>-2.09</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.00e+02</t>
+          <t>4.00e+02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.26e+02</t>
+          <t>5.06e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-13.1</t>
+          <t>-26.5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.41e+02</t>
+          <t>2.53e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-20.3</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.80e+02</t>
+          <t>3.29e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>17.7</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.02e-04</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>-0.435</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.728</t>
+          <t>-0.406</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>0.0216</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.86e-01</t>
+          <t>9.88e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.381</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.90e-01</t>
+          <t>9.89e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.0379</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.88e-01</t>
+          <t>9.89e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.249</t>
+          <t>0.0823</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -483,42 +483,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.00e+02</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.00e+02</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.68e+01</t>
+          <t>5.75e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.01e+02</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.913</t>
+          <t>0.192</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.02e+02</t>
+          <t>5.95e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>0.824</t>
         </is>
       </c>
     </row>
@@ -530,42 +530,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.00e+02</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.00e+03</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.06e+02</t>
+          <t>1.04e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-26.5</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.53e+02</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>-0.334</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.29e+02</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>-0.901</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>9.93e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.435</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>9.99e-05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.406</t>
+          <t>0.0978</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0216</t>
+          <t>-0.56</t>
         </is>
       </c>
     </row>
@@ -624,42 +624,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9.90e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.00e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.88e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>6.28e-10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.89e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>6.66e-14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.89e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.0823</t>
+          <t>1.41e-12</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>R1 [Ω]</t>
+          <t>t1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.75e+00</t>
+          <t>5.93e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>6.08e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.192</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.95e+00</t>
+          <t>6.11e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.824</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>R2 [Ω]</t>
+          <t>t2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.04e+00</t>
+          <t>9.96e-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-2.92</t>
+          <t>-0.352</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>1.02e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.334</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>1.01e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-0.901</t>
+          <t>-1.08</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.93e-05</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.99e-05</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0978</t>
+          <t>-0.288</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.473</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.28e-10</t>
+          <t>2.99e-09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.66e-14</t>
+          <t>2.54e-09</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.41e-12</t>
+          <t>8.77e-05</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>t1</t>
+          <t>τ1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,79 +493,79 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.93e+00</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.00327</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.08e+00</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-4.52e-06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.11e+00</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>7.54e-06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t2</t>
+          <t>τ2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>2.00e+00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>2.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.96e-01</t>
+          <t>2.00e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.352</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.02e+00</t>
+          <t>2.00e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-2.06e-05</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.01e+00</t>
+          <t>2.00e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-3.29e-05</t>
         </is>
       </c>
     </row>
@@ -577,42 +577,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.0105</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.288</t>
+          <t>-0.000134</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-0.473</t>
+          <t>-0.000176</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.99e-09</t>
+          <t>3.11e-05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.54e-09</t>
+          <t>0.000103</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>8.77e-05</t>
+          <t>0.000255</t>
         </is>
       </c>
     </row>

--- a/python/ilin/gg.xlsx
+++ b/python/ilin/gg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Guess</t>
+          <t>Fitted 1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 1</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 2</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Error</t>
+          <t>SD</t>
         </is>
       </c>
     </row>
@@ -493,32 +488,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.000344</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>6.00e+00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.00327</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>0.000413</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>6.00e+00</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-4.52e-06</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>7.54e-06</t>
+          <t>0.000937</t>
         </is>
       </c>
     </row>
@@ -540,79 +530,69 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00034</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>2.00e+00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>9.08e-05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>2.00e+00</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-2.06e-05</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.00e+00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-3.29e-05</t>
+          <t>0.000315</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Q [Fs^(1-α)]</t>
+          <t>τ2Q0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
+          <t>1.69e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.0105</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
+          <t>2.56e-05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.000134</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-0.000176</t>
+          <t>4.38e-05</t>
         </is>
       </c>
     </row>
@@ -634,32 +614,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>3.43e-05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.11e-05</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>6.7e-05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.000103</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.000255</t>
+          <t>7.04e-06</t>
         </is>
       </c>
     </row>
